--- a/MainAssignmnet/RegisteredUserDetails.xlsx
+++ b/MainAssignmnet/RegisteredUserDetails.xlsx
@@ -399,7 +399,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
@@ -575,6 +575,33 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>chitti</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>chitti@gmail.com</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
